--- a/presentation/reporting.xlsx
+++ b/presentation/reporting.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\Python\meetup-attendence-pred\presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\PyCharm\AttendancePrediction\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7728"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>yes</t>
   </si>
@@ -107,6 +107,12 @@
   <si>
     <t>Assumption: if the user is put on waitlist, we will still consider this user to be RSVPed.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_time</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -114,9 +120,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +205,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -213,8 +219,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,7 +236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -492,19 +498,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -518,7 +524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +536,7 @@
         <v>0.68655499342479287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -542,7 +548,7 @@
         <v>0.30177616731461648</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,7 +560,7 @@
         <v>1.1668839260590678E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -562,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,7 +576,7 @@
         <v>174139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -578,7 +584,7 @@
         <v>5.6155999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,7 +592,7 @@
         <v>0.31431599999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -594,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
         <v>0.25</v>
       </c>
@@ -602,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4">
         <v>0.5</v>
       </c>
@@ -610,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>0.75</v>
       </c>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4">
         <v>0.95</v>
       </c>
@@ -626,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4">
         <v>0.96</v>
       </c>
@@ -634,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -642,7 +648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -656,7 +662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -671,7 +677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -683,7 +689,7 @@
         <v>3.6057402419905939E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -695,7 +701,7 @@
         <v>8.820539913517363E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -707,7 +713,7 @@
         <v>8.6712338993562613E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -717,6 +723,78 @@
       <c r="C23" s="3">
         <f>B23/SUM(B19:B23)</f>
         <v>1.72276170185886E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>196147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3096.650572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6370.0248709999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B30" s="2">
+        <v>488.81305600000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>883.81833300000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2024.490278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43515.451667000001</v>
       </c>
     </row>
   </sheetData>

--- a/presentation/reporting.xlsx
+++ b/presentation/reporting.xlsx
@@ -5,14 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\PyCharm\AttendancePrediction\presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\Python\meetup-attendence-pred\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7728"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7725" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Descriptive" sheetId="1" r:id="rId1"/>
+    <sheet name="Data fields" sheetId="3" r:id="rId2"/>
+    <sheet name="Event describe" sheetId="4" r:id="rId3"/>
+    <sheet name="Group describe" sheetId="5" r:id="rId4"/>
+    <sheet name="User describe" sheetId="6" r:id="rId5"/>
+    <sheet name="Attribute remarks" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
   <si>
     <t>yes</t>
   </si>
@@ -113,16 +118,360 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Group attribute</t>
+  </si>
+  <si>
+    <t>Event attribute</t>
+  </si>
+  <si>
+    <t>User attribute</t>
+  </si>
+  <si>
+    <t>geo distance with event</t>
+  </si>
+  <si>
+    <t>geo distance with event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># events in past X days</t>
+  </si>
+  <si>
+    <t>day of week</t>
+  </si>
+  <si>
+    <t># attended events in past X days</t>
+  </si>
+  <si>
+    <t>avg. attendance % of the relevant events</t>
+  </si>
+  <si>
+    <t>hour of day</t>
+  </si>
+  <si>
+    <t># days since last event</t>
+  </si>
+  <si>
+    <t>event duration</t>
+  </si>
+  <si>
+    <t>group membership time</t>
+  </si>
+  <si>
+    <t>semantic similarity with event</t>
+  </si>
+  <si>
+    <t>group age</t>
+  </si>
+  <si>
+    <t>number of group members</t>
+  </si>
+  <si>
+    <t>Missing values</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing values 2600/6200 events.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>topics</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>hometown</t>
+  </si>
+  <si>
+    <t>memberships</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>rsvp_limit</t>
+  </si>
+  <si>
+    <t>venue_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>rsvps</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>e_datetime</t>
+  </si>
+  <si>
+    <t>e_hour</t>
+  </si>
+  <si>
+    <t>e_dow</t>
+  </si>
+  <si>
+    <t>e_dow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_reg_hours</t>
+  </si>
+  <si>
+    <t>e_reg_hours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has values: 6183/6200 (filtered 17 events)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has values: 6200/6200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has values: 2600/6200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has values: 2211/6200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_venue_id</t>
+  </si>
+  <si>
+    <t>e_rsvp_limit</t>
+  </si>
+  <si>
+    <t>e_created</t>
+  </si>
+  <si>
+    <t>e_time</t>
+  </si>
+  <si>
+    <t>e_duration</t>
+  </si>
+  <si>
+    <t>stat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_event_id</t>
+  </si>
+  <si>
+    <t>e_event_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_created</t>
+  </si>
+  <si>
+    <t>g_lon</t>
+  </si>
+  <si>
+    <t>g_lat</t>
+  </si>
+  <si>
+    <t>e_status</t>
+  </si>
+  <si>
+    <t>e_description</t>
+  </si>
+  <si>
+    <t>e_rsvps</t>
+  </si>
+  <si>
+    <t>e_group_id</t>
+  </si>
+  <si>
+    <t>e_name</t>
+  </si>
+  <si>
+    <t>v_city</t>
+  </si>
+  <si>
+    <t>v_name</t>
+  </si>
+  <si>
+    <t>v_country</t>
+  </si>
+  <si>
+    <t>v_lon</t>
+  </si>
+  <si>
+    <t>v_lat</t>
+  </si>
+  <si>
+    <t>g_city</t>
+  </si>
+  <si>
+    <t>g_description</t>
+  </si>
+  <si>
+    <t>g_topics</t>
+  </si>
+  <si>
+    <t>g_link</t>
+  </si>
+  <si>
+    <t>g_group_id</t>
+  </si>
+  <si>
+    <t>g_name</t>
+  </si>
+  <si>
+    <t>NaN values</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_user_id</t>
+  </si>
+  <si>
+    <t>u_lat</t>
+  </si>
+  <si>
+    <t>u_lon</t>
+  </si>
+  <si>
+    <t>Challen: cities with multiple names, even in the same country. E.g. brighton has more than 5 in different states in US. Decision is to take the last value in the same.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberships</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hometown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Should use haversine distance for lat, lon calculation. See http://www.movable-type.co.uk/scripts/latlong.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euclidean(lat_diff, lon_diff)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day of week of the event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour of day of the event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event duration (in hours)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event time - group creation time, in days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +518,51 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,7 +592,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -217,10 +604,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -236,7 +671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -498,304 +933,1657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
         <v>119556</v>
       </c>
-      <c r="C2" s="3">
-        <f>B2/SUM(B2:B4)</f>
+      <c r="C3" s="3">
+        <f>B3/SUM(B3:B5)</f>
         <v>0.68655499342479287</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="9">
         <v>52551</v>
       </c>
-      <c r="C3" s="3">
-        <f>B3/SUM(B2:B4)</f>
+      <c r="C4" s="3">
+        <f>B4/SUM(B3:B5)</f>
         <v>0.30177616731461648</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="9">
         <v>2032</v>
       </c>
-      <c r="C4" s="3">
-        <f>B4/SUM(B2:B4)</f>
+      <c r="C5" s="3">
+        <f>B5/SUM(B3:B5)</f>
         <v>1.1668839260590678E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="9">
         <v>174139</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="9">
         <v>5.6155999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="9">
         <v>0.31431599999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>0.25</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>0.5</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>0.75</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>0.95</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>0.96</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="9">
         <v>166170</v>
       </c>
-      <c r="C19" s="3">
-        <f>B19/SUM(B19:B23)</f>
+      <c r="C20" s="3">
+        <f>B20/SUM(B20:B24)</f>
         <v>0.95423770665962249</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="9">
         <v>6279</v>
       </c>
-      <c r="C20" s="3">
-        <f>B20/SUM(B19:B23)</f>
+      <c r="C21" s="3">
+        <f>B21/SUM(B20:B24)</f>
         <v>3.6057402419905939E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="9">
         <v>1536</v>
       </c>
-      <c r="C21" s="3">
-        <f>B21/SUM(B19:B23)</f>
+      <c r="C22" s="3">
+        <f>B22/SUM(B20:B24)</f>
         <v>8.820539913517363E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="9">
         <v>151</v>
       </c>
-      <c r="C22" s="3">
-        <f>B22/SUM(B19:B23)</f>
+      <c r="C23" s="3">
+        <f>B23/SUM(B20:B24)</f>
         <v>8.6712338993562613E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
-        <f>B23/SUM(B19:B23)</f>
+      <c r="C24" s="3">
+        <f>B24/SUM(B20:B24)</f>
         <v>1.72276170185886E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="9">
         <v>196147</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="9">
         <v>3096.650572</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="9">
         <v>6370.0248709999996</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="9">
         <v>-0.70250000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>0.25</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="9">
         <v>488.81305600000002</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>0.5</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="9">
         <v>883.81833300000005</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>0.75</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="9">
         <v>2024.490278</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="9">
         <v>43515.451667000001</v>
       </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2600</v>
+      </c>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="9">
+        <v>24115150</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" ref="C38:C39" si="0">B38/3600000</f>
+        <v>6.6986527777777773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="9">
+        <v>65761070</v>
+      </c>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2700000</v>
+      </c>
+      <c r="C40" s="10">
+        <f>B40/3600000</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B41" s="9">
+        <v>7200000</v>
+      </c>
+      <c r="C41" s="10">
+        <f t="shared" ref="C41:C44" si="1">B41/3600000</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B42" s="9">
+        <v>10800000</v>
+      </c>
+      <c r="C42" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="B43" s="9">
+        <v>16200000</v>
+      </c>
+      <c r="C43" s="10">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1148400000</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="77.625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="5" max="6" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="15">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="15">
+        <v>68673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="15">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="18"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="18"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="20">
+        <v>6200</v>
+      </c>
+      <c r="C2" s="20">
+        <v>2211</v>
+      </c>
+      <c r="D2" s="20">
+        <v>6200</v>
+      </c>
+      <c r="E2" s="20">
+        <v>6183</v>
+      </c>
+      <c r="F2" s="20">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="20">
+        <v>67959.885483999999</v>
+      </c>
+      <c r="C3" s="20">
+        <v>47.700588000000003</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1386568000000</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1395698000000</v>
+      </c>
+      <c r="F3" s="20">
+        <v>24115150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="20">
+        <v>488.48123500000003</v>
+      </c>
+      <c r="C4" s="20">
+        <v>42.778604000000001</v>
+      </c>
+      <c r="D4" s="20">
+        <v>40818860000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>39526520000</v>
+      </c>
+      <c r="F4" s="20">
+        <v>65761070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="20">
+        <v>67082</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1172849000000</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1173946000000</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="20">
+        <v>67563</v>
+      </c>
+      <c r="C6" s="20">
+        <v>20</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1361802000000</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1371807000000</v>
+      </c>
+      <c r="F6" s="20">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="20">
+        <v>67951</v>
+      </c>
+      <c r="C7" s="20">
+        <v>40</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1393498000000</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1404758000000</v>
+      </c>
+      <c r="F7" s="20">
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="20">
+        <v>68345</v>
+      </c>
+      <c r="C8" s="20">
+        <v>60</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1420825000000</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1427378000000</v>
+      </c>
+      <c r="F8" s="20">
+        <v>16200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20">
+        <v>68812</v>
+      </c>
+      <c r="C9" s="20">
+        <v>500</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1440671000000</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1472015000000</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1148400000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="20">
+        <v>711</v>
+      </c>
+      <c r="C2" s="20">
+        <v>711</v>
+      </c>
+      <c r="D2" s="20">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1394015000000</v>
+      </c>
+      <c r="C3" s="20">
+        <v>5.2691699999999999</v>
+      </c>
+      <c r="D3" s="20">
+        <v>51.965724000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="20">
+        <v>43034010000</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.88907400000000003</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.57271700000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1172849000000</v>
+      </c>
+      <c r="C5" s="20">
+        <v>3.13</v>
+      </c>
+      <c r="D5" s="20">
+        <v>50.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1372933000000</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D6" s="20">
+        <v>51.439999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1407404000000</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D7" s="20">
+        <v>52.099997999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1426360000000</v>
+      </c>
+      <c r="C8" s="20">
+        <v>5.47</v>
+      </c>
+      <c r="D8" s="20">
+        <v>52.369999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1440612000000</v>
+      </c>
+      <c r="C9" s="20">
+        <v>7.2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>53.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>57773</v>
+      </c>
+      <c r="C2">
+        <v>56965</v>
+      </c>
+      <c r="D2">
+        <v>56965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>38193.992955000002</v>
+      </c>
+      <c r="C3">
+        <v>50.574370999999999</v>
+      </c>
+      <c r="D3">
+        <v>3.6897199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>16678.304214</v>
+      </c>
+      <c r="C4">
+        <v>8.1670549999999995</v>
+      </c>
+      <c r="D4">
+        <v>21.997665000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>9307</v>
+      </c>
+      <c r="C5">
+        <v>-43.533332999999999</v>
+      </c>
+      <c r="D5">
+        <v>-170.27500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B6">
+        <v>23751</v>
+      </c>
+      <c r="C6">
+        <v>51.514125</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>38194</v>
+      </c>
+      <c r="C7">
+        <v>52.093812999999997</v>
+      </c>
+      <c r="D7">
+        <v>4.9166670000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="B8">
+        <v>52637</v>
+      </c>
+      <c r="C8">
+        <v>52.35</v>
+      </c>
+      <c r="D8">
+        <v>5.389526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>67081</v>
+      </c>
+      <c r="C9">
+        <v>64.2</v>
+      </c>
+      <c r="D9">
+        <v>174.783333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <v>47373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/presentation/reporting.xlsx
+++ b/presentation/reporting.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\Python\meetup-attendence-pred\presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\PyCharm\AttendancePrediction\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7725" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7728" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptive" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="User describe" sheetId="6" r:id="rId5"/>
     <sheet name="Attribute remarks" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Event describe'!$D$11:$E$32</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
   <si>
     <t>yes</t>
   </si>
@@ -418,10 +421,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Should use haversine distance for lat, lon calculation. See http://www.movable-type.co.uk/scripts/latlong.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Completed?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -434,10 +433,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Euclidean(lat_diff, lon_diff)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>???</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -458,8 +453,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Event time - group creation time, in days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Event time - group creation time (in days)</t>
+  </si>
+  <si>
+    <t>Event time - join group time (in days)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>duration for open registration</t>
+  </si>
+  <si>
+    <t>haversine(lat_diff, lon_diff) in meters</t>
+  </si>
+  <si>
+    <t>Event distribution over hours</t>
+  </si>
+  <si>
+    <t>3~6</t>
+  </si>
+  <si>
+    <t>7~10</t>
+  </si>
+  <si>
+    <t>11~14</t>
+  </si>
+  <si>
+    <t>15~18</t>
+  </si>
+  <si>
+    <t>19~22</t>
+  </si>
+  <si>
+    <t>23~2</t>
+  </si>
+  <si>
+    <t>Number of events organized by the same group before this event in past X days. (X = 28)</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>vg_dist</t>
+  </si>
+  <si>
+    <t>u_past_events</t>
+  </si>
+  <si>
+    <t>vu_dist</t>
+  </si>
+  <si>
+    <t>group_member_tenure</t>
+  </si>
+  <si>
+    <t>g_past_events</t>
+  </si>
+  <si>
+    <t>group_tenure</t>
+  </si>
+  <si>
+    <t>e_hour_2</t>
+  </si>
+  <si>
+    <t>e_hour_3</t>
+  </si>
+  <si>
+    <t>e_hour_4</t>
+  </si>
+  <si>
+    <t>e_hour_5</t>
+  </si>
+  <si>
+    <t>e_hour_6</t>
+  </si>
+  <si>
+    <t>e_day_1</t>
+  </si>
+  <si>
+    <t>e_day_2</t>
+  </si>
+  <si>
+    <t>e_day_3</t>
+  </si>
+  <si>
+    <t>e_day_4</t>
+  </si>
+  <si>
+    <t>e_day_5</t>
+  </si>
+  <si>
+    <t>e_day_6</t>
   </si>
 </sst>
 </file>
@@ -467,11 +557,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +634,13 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -582,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,7 +689,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -610,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -643,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -652,10 +749,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,8 +782,986 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Feature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" baseline="0"/>
+              <a:t> i</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>mportance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Attribute remarks'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Importance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Attribute remarks'!$G$3:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>e_reg_hours</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>vg_dist</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>u_past_events</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>vu_dist</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>group_member_tenure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>g_past_events</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>group_tenure</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>e_hour_2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>e_hour_3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>e_hour_4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>e_hour_5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>e_hour_6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>e_day_1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>e_day_2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>e_day_3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>e_day_4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>e_day_5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>e_day_6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Attribute remarks'!$H$3:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.0622E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.622E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6673E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11533599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7326E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="283056232"/>
+        <c:axId val="283053488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="283056232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283053488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="283053488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283056232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -939,15 +2029,15 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -961,7 +2051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +2063,7 @@
         <v>0.68655499342479287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -985,7 +2075,7 @@
         <v>0.30177616731461648</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -997,7 +2087,7 @@
         <v>1.1668839260590678E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +2095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +2103,7 @@
         <v>174139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +2111,7 @@
         <v>5.6155999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +2119,7 @@
         <v>0.31431599999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4">
         <v>0.25</v>
       </c>
@@ -1045,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>0.5</v>
       </c>
@@ -1053,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4">
         <v>0.75</v>
       </c>
@@ -1061,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4">
         <v>0.95</v>
       </c>
@@ -1069,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4">
         <v>0.96</v>
       </c>
@@ -1077,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +2175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +2189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +2204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +2216,7 @@
         <v>3.6057402419905939E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +2228,7 @@
         <v>8.820539913517363E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,7 +2240,7 @@
         <v>8.6712338993562613E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +2252,7 @@
         <v>1.72276170185886E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1170,7 +2260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +2268,7 @@
         <v>196147</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +2276,7 @@
         <v>3096.650572</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +2284,7 @@
         <v>6370.0248709999996</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +2292,7 @@
         <v>-0.70250000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>0.25</v>
       </c>
@@ -1210,7 +2300,7 @@
         <v>488.81305600000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>0.5</v>
       </c>
@@ -1218,7 +2308,7 @@
         <v>883.81833300000005</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>0.75</v>
       </c>
@@ -1226,7 +2316,7 @@
         <v>2024.490278</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,15 +2324,15 @@
         <v>43515.451667000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +2341,7 @@
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1259,11 +2349,11 @@
         <v>24115150</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" ref="C38:C39" si="0">B38/3600000</f>
+        <f t="shared" ref="C38" si="0">B38/3600000</f>
         <v>6.6986527777777773</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +2362,7 @@
       </c>
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +2374,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="4">
         <v>0.25</v>
       </c>
@@ -1296,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="4">
         <v>0.5</v>
       </c>
@@ -1308,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="4">
         <v>0.75</v>
       </c>
@@ -1320,7 +2410,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -1347,16 +2437,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="77.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="5" max="6" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="77.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
@@ -1364,61 +2454,61 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="16"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="16"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="16"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="16"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
         <v>56</v>
       </c>
@@ -1426,13 +2516,13 @@
         <v>68673</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="28.8">
       <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
@@ -1440,25 +2530,25 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="16"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>61</v>
       </c>
@@ -1466,25 +2556,25 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
         <v>48</v>
       </c>
@@ -1492,7 +2582,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
         <v>62</v>
       </c>
@@ -1500,7 +2590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
         <v>63</v>
       </c>
@@ -1508,7 +2598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
         <v>64</v>
       </c>
@@ -1516,55 +2606,55 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="16"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="16"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="16"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="18"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="18"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="11" t="s">
         <v>68</v>
       </c>
@@ -1572,43 +2662,43 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="16"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="16"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="16"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B43" s="16"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="16"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="16"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="B46" s="19"/>
     </row>
   </sheetData>
@@ -1619,20 +2709,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
@@ -1652,7 +2744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +2764,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +2784,7 @@
         <v>24115150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +2804,7 @@
         <v>65761070</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1732,7 +2824,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="21">
         <v>0.25</v>
       </c>
@@ -1752,7 +2844,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="21">
         <v>0.5</v>
       </c>
@@ -1772,7 +2864,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="21">
         <v>0.75</v>
       </c>
@@ -1792,7 +2884,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1812,180 +2904,346 @@
         <v>1148400000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="24">
+        <v>4</v>
+      </c>
+      <c r="E13" s="24">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B14">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="24">
+        <v>5</v>
+      </c>
+      <c r="E14" s="24">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="24">
+        <v>6</v>
+      </c>
+      <c r="E15" s="24">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B16">
         <v>3974</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="24">
+        <v>7</v>
+      </c>
+      <c r="E16" s="24">
+        <v>395</v>
+      </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="24">
+        <v>8</v>
+      </c>
+      <c r="E17" s="24">
+        <v>339</v>
+      </c>
+      <c r="G17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="24">
+        <v>9</v>
+      </c>
+      <c r="E18" s="24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B19">
         <v>3583</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="24">
+        <v>10</v>
+      </c>
+      <c r="E19" s="24">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="24">
+        <v>11</v>
+      </c>
+      <c r="E20" s="24">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="24">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="24">
+        <v>13</v>
+      </c>
+      <c r="E22" s="24">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="24">
+        <v>14</v>
+      </c>
+      <c r="E23" s="24">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" s="24">
+        <v>15</v>
+      </c>
+      <c r="E24" s="24">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" s="24">
+        <v>16</v>
+      </c>
+      <c r="E25" s="24">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="24">
+        <v>17</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="24">
+        <v>18</v>
+      </c>
+      <c r="E27" s="24">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" s="24">
+        <v>19</v>
+      </c>
+      <c r="E28" s="24">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" s="24">
+        <v>20</v>
+      </c>
+      <c r="E29" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" s="24">
+        <v>21</v>
+      </c>
+      <c r="E30" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" s="24">
+        <v>22</v>
+      </c>
+      <c r="E31" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="24">
+        <v>23</v>
+      </c>
+      <c r="E32" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="8" t="s">
         <v>103</v>
       </c>
@@ -1993,7 +3251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="8" t="s">
         <v>89</v>
       </c>
@@ -2001,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="8" t="s">
         <v>104</v>
       </c>
@@ -2009,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
         <v>90</v>
       </c>
@@ -2017,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="8" t="s">
         <v>105</v>
       </c>
@@ -2025,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="8" t="s">
         <v>91</v>
       </c>
@@ -2033,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="8" t="s">
         <v>106</v>
       </c>
@@ -2041,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="8" t="s">
         <v>107</v>
       </c>
@@ -2049,24 +3307,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="B45" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="D12:E32">
+    <sortCondition ref="D12:D32"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2076,15 +3338,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>89</v>
       </c>
@@ -2095,7 +3357,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2109,7 +3371,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2123,7 +3385,7 @@
         <v>51.965724000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2137,7 +3399,7 @@
         <v>0.57271700000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2151,7 +3413,7 @@
         <v>50.93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="21">
         <v>0.25</v>
       </c>
@@ -2165,7 +3427,7 @@
         <v>51.439999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="21">
         <v>0.5</v>
       </c>
@@ -2179,7 +3441,7 @@
         <v>52.099997999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="21">
         <v>0.75</v>
       </c>
@@ -2193,7 +3455,7 @@
         <v>52.369999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -2219,15 +3481,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>109</v>
       </c>
@@ -2238,7 +3500,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2246,13 +3508,13 @@
         <v>57773</v>
       </c>
       <c r="C2">
-        <v>56965</v>
+        <v>57192</v>
       </c>
       <c r="D2">
-        <v>56965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2260,13 +3522,13 @@
         <v>38193.992955000002</v>
       </c>
       <c r="C3">
-        <v>50.574370999999999</v>
+        <v>50.538063000000001</v>
       </c>
       <c r="D3">
-        <v>3.6897199999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6634169999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2274,13 +3536,13 @@
         <v>16678.304214</v>
       </c>
       <c r="C4">
-        <v>8.1670549999999995</v>
+        <v>8.2669700000000006</v>
       </c>
       <c r="D4">
-        <v>21.997665000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22.023226000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +3556,7 @@
         <v>-170.27500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="21">
         <v>0.25</v>
       </c>
@@ -2302,13 +3564,13 @@
         <v>23751</v>
       </c>
       <c r="C6">
-        <v>51.514125</v>
+        <v>51.481431000000001</v>
       </c>
       <c r="D6">
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="21">
         <v>0.5</v>
       </c>
@@ -2322,7 +3584,7 @@
         <v>4.9166670000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="21">
         <v>0.75</v>
       </c>
@@ -2336,7 +3598,7 @@
         <v>5.389526</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -2350,12 +3612,12 @@
         <v>174.783333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>113</v>
       </c>
@@ -2363,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>114</v>
       </c>
@@ -2371,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>115</v>
       </c>
@@ -2379,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>116</v>
       </c>
@@ -2387,7 +3649,7 @@
         <v>47373</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
         <v>117</v>
       </c>
@@ -2398,196 +3660,331 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
-        <v>121</v>
+    <row r="1" spans="2:8">
+      <c r="C1" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
+      <c r="C3" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>5.0622E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="43.2">
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4">
+        <v>0.126444</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5">
+        <v>0.56738</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6">
+        <v>9.622E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>128</v>
+      <c r="C7" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8">
+        <v>1.6673E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9">
+        <v>0.11533599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>125</v>
+      <c r="C11" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>126</v>
+      <c r="C12" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>127</v>
+      <c r="C13" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13">
+        <v>2.7326E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="D15" s="7"/>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="7"/>
+      <c r="G16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C20" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="D23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>